--- a/Openshift_Developer.xlsx
+++ b/Openshift_Developer.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{4600EB13-E2DA-EA4B-B903-709DC422648B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53CDB2DE-DB32-1F4A-9E32-F0BC982E4888}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{77D5BF0B-3D25-D44C-9E6A-31105A5C2B5A}"/>
+    <workbookView xWindow="-38740" yWindow="500" windowWidth="38400" windowHeight="19460" xr2:uid="{77D5BF0B-3D25-D44C-9E6A-31105A5C2B5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6403EE-B607-A942-89C4-6D894D45CF0D}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
